--- a/output/GIANT_11052478000181.xlsx
+++ b/output/GIANT_11052478000181.xlsx
@@ -1549,10 +1549,10 @@
         <v>44165</v>
       </c>
       <c r="B106">
-        <v>2.72833314</v>
+        <v>2.71998318</v>
       </c>
       <c r="C106">
-        <v>0.001849698579014625</v>
+        <v>-0.0003940400020144841</v>
       </c>
     </row>
   </sheetData>

--- a/output/GIANT_11052478000181.xlsx
+++ b/output/GIANT_11052478000181.xlsx
@@ -14,12 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>GIANT ZARATHUSTRA FUNDO DE INVESTIMENTO EM COTAS DE FUNDO DE INVESTIMENTO MULTIMERCADO</t>
-  </si>
-  <si>
-    <t>mensal</t>
   </si>
   <si>
     <t>d</t>
@@ -386,1173 +383,858 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C106"/>
+  <dimension ref="A1:B106"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" s="2">
         <v>40999</v>
       </c>
       <c r="B2">
-        <v>-0.009968100000000035</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" s="2">
         <v>41029</v>
       </c>
       <c r="B3">
-        <v>0.05857270000000003</v>
-      </c>
-      <c r="C3">
         <v>0.06923090053966963</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:2">
       <c r="A4" s="2">
         <v>41060</v>
       </c>
       <c r="B4">
-        <v>0.0375513999999999</v>
-      </c>
-      <c r="C4">
         <v>-0.01985815428642745</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:2">
       <c r="A5" s="2">
         <v>41090</v>
       </c>
       <c r="B5">
-        <v>0.04616369999999992</v>
-      </c>
-      <c r="C5">
         <v>0.008300600818426984</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:2">
       <c r="A6" s="2">
         <v>41121</v>
       </c>
       <c r="B6">
-        <v>0.06619419999999998</v>
-      </c>
-      <c r="C6">
         <v>0.01914662112631138</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:2">
       <c r="A7" s="2">
         <v>41152</v>
       </c>
       <c r="B7">
-        <v>0.07376929999999993</v>
-      </c>
-      <c r="C7">
         <v>0.007104803233782375</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:2">
       <c r="A8" s="2">
         <v>41182</v>
       </c>
       <c r="B8">
-        <v>0.07868190000000008</v>
-      </c>
-      <c r="C8">
         <v>0.004575098207781014</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:2">
       <c r="A9" s="2">
         <v>41213</v>
       </c>
       <c r="B9">
-        <v>0.08100710000000011</v>
-      </c>
-      <c r="C9">
         <v>0.002155593785341248</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:2">
       <c r="A10" s="2">
         <v>41243</v>
       </c>
       <c r="B10">
-        <v>0.099553</v>
-      </c>
-      <c r="C10">
         <v>0.01715613153697126</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:2">
       <c r="A11" s="2">
         <v>41274</v>
       </c>
       <c r="B11">
-        <v>0.05624239999999991</v>
-      </c>
-      <c r="C11">
         <v>-0.03938927909796075</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:2">
       <c r="A12" s="2">
         <v>41305</v>
       </c>
       <c r="B12">
-        <v>0.1227568999999999</v>
-      </c>
-      <c r="C12">
         <v>0.06297276079808967</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:2">
       <c r="A13" s="2">
         <v>41333</v>
       </c>
       <c r="B13">
-        <v>0.1427252999999999</v>
-      </c>
-      <c r="C13">
         <v>0.01778515010684867</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:2">
       <c r="A14" s="2">
         <v>41364</v>
       </c>
       <c r="B14">
-        <v>0.1362582000000001</v>
-      </c>
-      <c r="C14">
         <v>-0.005659365378538395</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:2">
       <c r="A15" s="2">
         <v>41394</v>
       </c>
       <c r="B15">
-        <v>0.1388457999999999</v>
-      </c>
-      <c r="C15">
         <v>0.002277299296937763</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:2">
       <c r="A16" s="2">
         <v>41425</v>
       </c>
       <c r="B16">
-        <v>0.2315841999999999</v>
-      </c>
-      <c r="C16">
         <v>0.08143191993156584</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:2">
       <c r="A17" s="2">
         <v>41455</v>
       </c>
       <c r="B17">
-        <v>0.3197307</v>
-      </c>
-      <c r="C17">
         <v>0.07157163919446208</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:2">
       <c r="A18" s="2">
         <v>41486</v>
       </c>
       <c r="B18">
-        <v>0.2981288</v>
-      </c>
-      <c r="C18">
         <v>-0.01636841516227516</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:2">
       <c r="A19" s="2">
         <v>41517</v>
       </c>
       <c r="B19">
-        <v>0.3665896</v>
-      </c>
-      <c r="C19">
         <v>0.05273806420441485</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:2">
       <c r="A20" s="2">
         <v>41547</v>
       </c>
       <c r="B20">
-        <v>0.2927162000000001</v>
-      </c>
-      <c r="C20">
         <v>-0.05405675559070544</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:2">
       <c r="A21" s="2">
         <v>41578</v>
       </c>
       <c r="B21">
-        <v>0.2872421999999999</v>
-      </c>
-      <c r="C21">
         <v>-0.00423449477928739</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:2">
       <c r="A22" s="2">
         <v>41608</v>
       </c>
       <c r="B22">
-        <v>0.2785424999999999</v>
-      </c>
-      <c r="C22">
         <v>-0.006758401798822256</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:2">
       <c r="A23" s="2">
         <v>41639</v>
       </c>
       <c r="B23">
-        <v>0.2962583999999999</v>
-      </c>
-      <c r="C23">
         <v>0.01385632468220654</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:2">
       <c r="A24" s="2">
         <v>41670</v>
       </c>
       <c r="B24">
-        <v>0.4051245999999999</v>
-      </c>
-      <c r="C24">
         <v>0.08398495238295078</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:2">
       <c r="A25" s="2">
         <v>41698</v>
       </c>
       <c r="B25">
-        <v>0.4189565</v>
-      </c>
-      <c r="C25">
         <v>0.009843895694374716</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:2">
       <c r="A26" s="2">
         <v>41729</v>
       </c>
       <c r="B26">
-        <v>0.4220467000000001</v>
-      </c>
-      <c r="C26">
         <v>0.002177797557571415</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:2">
       <c r="A27" s="2">
         <v>41759</v>
       </c>
       <c r="B27">
-        <v>0.4543404</v>
-      </c>
-      <c r="C27">
         <v>0.02270931046076052</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:2">
       <c r="A28" s="2">
         <v>41790</v>
       </c>
       <c r="B28">
-        <v>0.4971186999999999</v>
-      </c>
-      <c r="C28">
         <v>0.02941422792078119</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:2">
       <c r="A29" s="2">
         <v>41820</v>
       </c>
       <c r="B29">
-        <v>0.5247470000000001</v>
-      </c>
-      <c r="C29">
         <v>0.01845431494510108</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:2">
       <c r="A30" s="2">
         <v>41851</v>
       </c>
       <c r="B30">
-        <v>0.4911871000000001</v>
-      </c>
-      <c r="C30">
         <v>-0.02201014332213802</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:2">
       <c r="A31" s="2">
         <v>41882</v>
       </c>
       <c r="B31">
-        <v>0.4578905</v>
-      </c>
-      <c r="C31">
         <v>-0.02232892170271594</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:2">
       <c r="A32" s="2">
         <v>41912</v>
       </c>
       <c r="B32">
-        <v>0.6403665999999999</v>
-      </c>
-      <c r="C32">
         <v>0.1251644756584942</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:2">
       <c r="A33" s="2">
         <v>41943</v>
       </c>
       <c r="B33">
-        <v>0.5898355</v>
-      </c>
-      <c r="C33">
         <v>-0.0308047603505216</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:2">
       <c r="A34" s="2">
         <v>41973</v>
       </c>
       <c r="B34">
-        <v>0.6072686</v>
-      </c>
-      <c r="C34">
         <v>0.01096534830175822</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:2">
       <c r="A35" s="2">
         <v>42004</v>
       </c>
       <c r="B35">
-        <v>0.6388488000000001</v>
-      </c>
-      <c r="C35">
         <v>0.0196483649341499</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:2">
       <c r="A36" s="2">
         <v>42035</v>
       </c>
       <c r="B36">
-        <v>0.6277505999999999</v>
-      </c>
-      <c r="C36">
         <v>-0.006771948699599517</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:2">
       <c r="A37" s="2">
         <v>42063</v>
       </c>
       <c r="B37">
-        <v>0.6509955000000001</v>
-      </c>
-      <c r="C37">
         <v>0.01428038177347313</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:2">
       <c r="A38" s="2">
         <v>42094</v>
       </c>
       <c r="B38">
-        <v>0.7767704</v>
-      </c>
-      <c r="C38">
         <v>0.07618124943405347</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:2">
       <c r="A39" s="2">
         <v>42124</v>
       </c>
       <c r="B39">
-        <v>0.7344744000000001</v>
-      </c>
-      <c r="C39">
         <v>-0.02380498909707185</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:2">
       <c r="A40" s="2">
         <v>42155</v>
       </c>
       <c r="B40">
-        <v>0.7573212</v>
-      </c>
-      <c r="C40">
         <v>0.01317217480984434</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:2">
       <c r="A41" s="2">
         <v>42185</v>
       </c>
       <c r="B41">
-        <v>0.7965308</v>
-      </c>
-      <c r="C41">
         <v>0.02231214191236064</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:2">
       <c r="A42" s="2">
         <v>42216</v>
       </c>
       <c r="B42">
-        <v>0.7829961000000001</v>
-      </c>
-      <c r="C42">
         <v>-0.00753379791763098</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:2">
       <c r="A43" s="2">
         <v>42247</v>
       </c>
       <c r="B43">
-        <v>0.8314918</v>
-      </c>
-      <c r="C43">
         <v>0.02719899387328995</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:2">
       <c r="A44" s="2">
         <v>42277</v>
       </c>
       <c r="B44">
-        <v>0.9990258000000001</v>
-      </c>
-      <c r="C44">
         <v>0.09147406502174893</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:2">
       <c r="A45" s="2">
         <v>42308</v>
       </c>
       <c r="B45">
-        <v>0.9853641</v>
-      </c>
-      <c r="C45">
         <v>-0.0068341789285562</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:2">
       <c r="A46" s="2">
         <v>42338</v>
       </c>
       <c r="B46">
-        <v>1.00064943</v>
-      </c>
-      <c r="C46">
         <v>0.007699005940522641</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:2">
       <c r="A47" s="2">
         <v>42369</v>
       </c>
       <c r="B47">
-        <v>0.9901038900000001</v>
-      </c>
-      <c r="C47">
         <v>-0.005271058408269025</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:2">
       <c r="A48" s="2">
         <v>42400</v>
       </c>
       <c r="B48">
-        <v>1.14582527</v>
-      </c>
-      <c r="C48">
         <v>0.07824786473835799</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:2">
       <c r="A49" s="2">
         <v>42429</v>
       </c>
       <c r="B49">
-        <v>1.17254925</v>
-      </c>
-      <c r="C49">
         <v>0.01245394039002989</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:2">
       <c r="A50" s="2">
         <v>42460</v>
       </c>
       <c r="B50">
-        <v>1.32255912</v>
-      </c>
-      <c r="C50">
         <v>0.0690478570278672</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:2">
       <c r="A51" s="2">
         <v>42490</v>
       </c>
       <c r="B51">
-        <v>1.34303027</v>
-      </c>
-      <c r="C51">
         <v>0.008814049047758843</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:2">
       <c r="A52" s="2">
         <v>42521</v>
       </c>
       <c r="B52">
-        <v>1.31539147</v>
-      </c>
-      <c r="C52">
         <v>-0.01179617709335012</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:2">
       <c r="A53" s="2">
         <v>42551</v>
       </c>
       <c r="B53">
-        <v>1.3668887</v>
-      </c>
-      <c r="C53">
         <v>0.02224126272694615</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:2">
       <c r="A54" s="2">
         <v>42582</v>
       </c>
       <c r="B54">
-        <v>1.36125533</v>
-      </c>
-      <c r="C54">
         <v>-0.002380073891940948</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:2">
       <c r="A55" s="2">
         <v>42613</v>
       </c>
       <c r="B55">
-        <v>1.39062861</v>
-      </c>
-      <c r="C55">
         <v>0.01243968817213847</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:2">
       <c r="A56" s="2">
         <v>42643</v>
       </c>
       <c r="B56">
-        <v>1.37313952</v>
-      </c>
-      <c r="C56">
         <v>-0.007315686730612558</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:2">
       <c r="A57" s="2">
         <v>42674</v>
       </c>
       <c r="B57">
-        <v>1.35020112</v>
-      </c>
-      <c r="C57">
         <v>-0.009665845520957839</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:2">
       <c r="A58" s="2">
         <v>42704</v>
       </c>
       <c r="B58">
-        <v>1.3425959</v>
-      </c>
-      <c r="C58">
         <v>-0.003235986884390529</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:2">
       <c r="A59" s="2">
         <v>42735</v>
       </c>
       <c r="B59">
-        <v>1.40699109</v>
-      </c>
-      <c r="C59">
         <v>0.02748881699997852</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:2">
       <c r="A60" s="2">
         <v>42766</v>
       </c>
       <c r="B60">
-        <v>1.50740024</v>
-      </c>
-      <c r="C60">
         <v>0.04171563011477541</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:2">
       <c r="A61" s="2">
         <v>42794</v>
       </c>
       <c r="B61">
-        <v>1.63809385</v>
-      </c>
-      <c r="C61">
         <v>0.05212315445897864</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:2">
       <c r="A62" s="2">
         <v>42825</v>
       </c>
       <c r="B62">
-        <v>1.66559649</v>
-      </c>
-      <c r="C62">
         <v>0.01042519393311192</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:2">
       <c r="A63" s="2">
         <v>42855</v>
       </c>
       <c r="B63">
-        <v>1.69703218</v>
-      </c>
-      <c r="C63">
         <v>0.01179311651929726</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:2">
       <c r="A64" s="2">
         <v>42886</v>
       </c>
       <c r="B64">
-        <v>1.44380033</v>
-      </c>
-      <c r="C64">
         <v>-0.09389278032270265</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:2">
       <c r="A65" s="2">
         <v>42916</v>
       </c>
       <c r="B65">
-        <v>1.44257814</v>
-      </c>
-      <c r="C65">
         <v>-0.0005001186001148961</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:2">
       <c r="A66" s="2">
         <v>42947</v>
       </c>
       <c r="B66">
-        <v>1.61422232</v>
-      </c>
-      <c r="C66">
         <v>0.07027172526812175</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:2">
       <c r="A67" s="2">
         <v>42978</v>
       </c>
       <c r="B67">
-        <v>1.62026664</v>
-      </c>
-      <c r="C67">
         <v>0.002312091038990216</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:2">
       <c r="A68" s="2">
         <v>43008</v>
       </c>
       <c r="B68">
-        <v>1.68015153</v>
-      </c>
-      <c r="C68">
         <v>0.02285450231889374</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:2">
       <c r="A69" s="2">
         <v>43039</v>
       </c>
       <c r="B69">
-        <v>1.73664344</v>
-      </c>
-      <c r="C69">
         <v>0.02107787913021464</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:2">
       <c r="A70" s="2">
         <v>43069</v>
       </c>
       <c r="B70">
-        <v>1.71581505</v>
-      </c>
-      <c r="C70">
         <v>-0.007610925740475727</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:2">
       <c r="A71" s="2">
         <v>43100</v>
       </c>
       <c r="B71">
-        <v>1.77110922</v>
-      </c>
-      <c r="C71">
         <v>0.02036006465167794</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:2">
       <c r="A72" s="2">
         <v>43131</v>
       </c>
       <c r="B72">
-        <v>1.74790268</v>
-      </c>
-      <c r="C72">
         <v>-0.008374458802457463</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:2">
       <c r="A73" s="2">
         <v>43159</v>
       </c>
       <c r="B73">
-        <v>1.75540763</v>
-      </c>
-      <c r="C73">
         <v>0.002731155675425923</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:2">
       <c r="A74" s="2">
         <v>43190</v>
       </c>
       <c r="B74">
-        <v>1.81638458</v>
-      </c>
-      <c r="C74">
         <v>0.02212991984783019</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:2">
       <c r="A75" s="2">
         <v>43220</v>
       </c>
       <c r="B75">
-        <v>1.79052695</v>
-      </c>
-      <c r="C75">
         <v>-0.009181143151976823</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:2">
       <c r="A76" s="2">
         <v>43251</v>
       </c>
       <c r="B76">
-        <v>1.88366904</v>
-      </c>
-      <c r="C76">
         <v>0.03337795752160733</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:2">
       <c r="A77" s="2">
         <v>43281</v>
       </c>
       <c r="B77">
-        <v>2.05749078</v>
-      </c>
-      <c r="C77">
         <v>0.06027797836328674</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:2">
       <c r="A78" s="2">
         <v>43312</v>
       </c>
       <c r="B78">
-        <v>1.96137742</v>
-      </c>
-      <c r="C78">
         <v>-0.03143537198172697</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:2">
       <c r="A79" s="2">
         <v>43343</v>
       </c>
       <c r="B79">
-        <v>2.12372373</v>
-      </c>
-      <c r="C79">
         <v>0.05482121559500519</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:2">
       <c r="A80" s="2">
         <v>43373</v>
       </c>
       <c r="B80">
-        <v>2.06089605</v>
-      </c>
-      <c r="C80">
         <v>-0.0201130719072905</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:2">
       <c r="A81" s="2">
         <v>43404</v>
       </c>
       <c r="B81">
-        <v>2.17768562</v>
-      </c>
-      <c r="C81">
         <v>0.03815535323390029</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
+    <row r="82" spans="1:2">
       <c r="A82" s="2">
         <v>43434</v>
       </c>
       <c r="B82">
-        <v>2.17076205</v>
-      </c>
-      <c r="C82">
         <v>-0.00217880899118017</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83" spans="1:2">
       <c r="A83" s="2">
         <v>43465</v>
       </c>
       <c r="B83">
-        <v>2.19886036</v>
-      </c>
-      <c r="C83">
         <v>0.00886168988934366</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" spans="1:2">
       <c r="A84" s="2">
         <v>43496</v>
       </c>
       <c r="B84">
-        <v>2.28012942</v>
-      </c>
-      <c r="C84">
         <v>0.02540562914725064</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" spans="1:2">
       <c r="A85" s="2">
         <v>43524</v>
       </c>
       <c r="B85">
-        <v>2.17521334</v>
-      </c>
-      <c r="C85">
         <v>-0.03198534770009176</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
+    <row r="86" spans="1:2">
       <c r="A86" s="2">
         <v>43555</v>
       </c>
       <c r="B86">
-        <v>2.12009001</v>
-      </c>
-      <c r="C86">
         <v>-0.01736051222309354</v>
       </c>
     </row>
-    <row r="87" spans="1:3">
+    <row r="87" spans="1:2">
       <c r="A87" s="2">
         <v>43585</v>
       </c>
       <c r="B87">
-        <v>2.09326322</v>
-      </c>
-      <c r="C87">
         <v>-0.008598082079048885</v>
       </c>
     </row>
-    <row r="88" spans="1:3">
+    <row r="88" spans="1:2">
       <c r="A88" s="2">
         <v>43616</v>
       </c>
       <c r="B88">
-        <v>2.12889007</v>
-      </c>
-      <c r="C88">
         <v>0.01151756170300966</v>
       </c>
     </row>
-    <row r="89" spans="1:3">
+    <row r="89" spans="1:2">
       <c r="A89" s="2">
         <v>43646</v>
       </c>
       <c r="B89">
-        <v>2.26165626</v>
-      </c>
-      <c r="C89">
         <v>0.04243236004772766</v>
       </c>
     </row>
-    <row r="90" spans="1:3">
+    <row r="90" spans="1:2">
       <c r="A90" s="2">
         <v>43677</v>
       </c>
       <c r="B90">
-        <v>2.34655546</v>
-      </c>
-      <c r="C90">
         <v>0.02602947497600483</v>
       </c>
     </row>
-    <row r="91" spans="1:3">
+    <row r="91" spans="1:2">
       <c r="A91" s="2">
         <v>43708</v>
       </c>
       <c r="B91">
-        <v>2.386991</v>
-      </c>
-      <c r="C91">
         <v>0.01208273416750738</v>
       </c>
     </row>
-    <row r="92" spans="1:3">
+    <row r="92" spans="1:2">
       <c r="A92" s="2">
         <v>43738</v>
       </c>
       <c r="B92">
-        <v>2.47859882</v>
-      </c>
-      <c r="C92">
         <v>0.02704696292372799</v>
       </c>
     </row>
-    <row r="93" spans="1:3">
+    <row r="93" spans="1:2">
       <c r="A93" s="2">
         <v>43769</v>
       </c>
       <c r="B93">
-        <v>2.52007405</v>
-      </c>
-      <c r="C93">
         <v>0.01192297018027499</v>
       </c>
     </row>
-    <row r="94" spans="1:3">
+    <row r="94" spans="1:2">
       <c r="A94" s="2">
         <v>43799</v>
       </c>
       <c r="B94">
-        <v>2.52025423</v>
-      </c>
-      <c r="C94">
         <v>5.118642319468236e-05</v>
       </c>
     </row>
-    <row r="95" spans="1:3">
+    <row r="95" spans="1:2">
       <c r="A95" s="2">
         <v>43830</v>
       </c>
       <c r="B95">
-        <v>2.55067268</v>
-      </c>
-      <c r="C95">
         <v>0.008640981023691596</v>
       </c>
     </row>
-    <row r="96" spans="1:3">
+    <row r="96" spans="1:2">
       <c r="A96" s="2">
         <v>43861</v>
       </c>
       <c r="B96">
-        <v>2.61988472</v>
-      </c>
-      <c r="C96">
         <v>0.01949265568461245</v>
       </c>
     </row>
-    <row r="97" spans="1:3">
+    <row r="97" spans="1:2">
       <c r="A97" s="2">
         <v>43890</v>
       </c>
       <c r="B97">
-        <v>2.66586583</v>
-      </c>
-      <c r="C97">
         <v>0.01270236859918561</v>
       </c>
     </row>
-    <row r="98" spans="1:3">
+    <row r="98" spans="1:2">
       <c r="A98" s="2">
         <v>43921</v>
       </c>
       <c r="B98">
-        <v>2.74198248</v>
-      </c>
-      <c r="C98">
         <v>0.0207636213461746</v>
       </c>
     </row>
-    <row r="99" spans="1:3">
+    <row r="99" spans="1:2">
       <c r="A99" s="2">
         <v>43951</v>
       </c>
       <c r="B99">
-        <v>2.81042231</v>
-      </c>
-      <c r="C99">
         <v>0.0182897248626348</v>
       </c>
     </row>
-    <row r="100" spans="1:3">
+    <row r="100" spans="1:2">
       <c r="A100" s="2">
         <v>43982</v>
       </c>
       <c r="B100">
-        <v>2.82982162</v>
-      </c>
-      <c r="C100">
         <v>0.005091118102339864</v>
       </c>
     </row>
-    <row r="101" spans="1:3">
+    <row r="101" spans="1:2">
       <c r="A101" s="2">
         <v>44012</v>
       </c>
       <c r="B101">
-        <v>2.82950673</v>
-      </c>
-      <c r="C101">
         <v>-8.222053955619923e-05</v>
       </c>
     </row>
-    <row r="102" spans="1:3">
+    <row r="102" spans="1:2">
       <c r="A102" s="2">
         <v>44043</v>
       </c>
       <c r="B102">
-        <v>2.86689299</v>
-      </c>
-      <c r="C102">
         <v>0.009762682934363331</v>
       </c>
     </row>
-    <row r="103" spans="1:3">
+    <row r="103" spans="1:2">
       <c r="A103" s="2">
         <v>44074</v>
       </c>
       <c r="B103">
-        <v>2.852269</v>
-      </c>
-      <c r="C103">
         <v>-0.003781845020748853</v>
       </c>
     </row>
-    <row r="104" spans="1:3">
+    <row r="104" spans="1:2">
       <c r="A104" s="2">
         <v>44104</v>
       </c>
       <c r="B104">
-        <v>2.74926255</v>
-      </c>
-      <c r="C104">
         <v>-0.02673916333464776</v>
       </c>
     </row>
-    <row r="105" spans="1:3">
+    <row r="105" spans="1:2">
       <c r="A105" s="2">
         <v>44135</v>
       </c>
       <c r="B105">
-        <v>2.72144958</v>
-      </c>
-      <c r="C105">
         <v>-0.007418250823752026</v>
       </c>
     </row>
-    <row r="106" spans="1:3">
+    <row r="106" spans="1:2">
       <c r="A106" s="2">
         <v>44165</v>
       </c>
       <c r="B106">
-        <v>2.71998318</v>
-      </c>
-      <c r="C106">
-        <v>-0.0003940400020144841</v>
+        <v>-0.004471085699889965</v>
       </c>
     </row>
   </sheetData>
